--- a/src/liste.xlsx
+++ b/src/liste.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>№</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>MESSAGE</t>
+  </si>
+  <si>
+    <t>JEAN</t>
+  </si>
+  <si>
+    <t>MBAYO</t>
   </si>
 </sst>
 </file>
@@ -471,7 +477,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -598,8 +604,12 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
